--- a/other/4 Map/guangdong city gdp2021.xlsx
+++ b/other/4 Map/guangdong city gdp2021.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinchaoduan/Documents/R project/tidymodel in R/other/4 Map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FA31CD-8EE3-DE46-BE2C-FCA5467CB025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89929E5-55CD-FF43-8AD6-4FBC06ADBA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="780" windowWidth="33240" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="7740" windowWidth="33160" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +118,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -154,8 +166,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -456,7 +468,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
